--- a/PDD.xlsx
+++ b/PDD.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29ABDB6E-6074-4423-B3F2-7F1FE7A05C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C313F-E283-46B7-A581-24B23F064586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" activeTab="1" xr2:uid="{993E6331-6CE6-4343-AF0F-F0F968464DB9}"/>
+    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{993E6331-6CE6-4343-AF0F-F0F968464DB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -273,30 +270,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Tech"/>
-      <sheetName val="Currencies"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="3">
-          <cell r="C3">
-            <v>0.14000000000000001</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -618,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71972D74-B4A2-49AC-B257-F2C7D228A81C}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -651,7 +624,6 @@
         <v>10</v>
       </c>
       <c r="I3" s="3">
-        <f>+I2/[1]Currencies!$C$3/4</f>
         <v>199.83928571428569</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -726,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE05EBF-5B1F-48F6-ACCD-B11EDB6FEB8A}">
   <dimension ref="A1:AS208"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/PDD.xlsx
+++ b/PDD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453C313F-E283-46B7-A581-24B23F064586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4CAAC-F3FE-4817-9680-335B7CDA2FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{993E6331-6CE6-4343-AF0F-F0F968464DB9}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>Pindoudou</t>
   </si>
@@ -99,12 +99,6 @@
     <t>Q424</t>
   </si>
   <si>
-    <t>Online Marketing Service Revenue</t>
-  </si>
-  <si>
-    <t>Transaction Service Revenue</t>
-  </si>
-  <si>
     <t>Total Revenue</t>
   </si>
   <si>
@@ -126,22 +120,13 @@
     <t>Operating Income</t>
   </si>
   <si>
-    <t>Interest and Investment Income</t>
-  </si>
-  <si>
     <t>Interest Expense</t>
-  </si>
-  <si>
-    <t>Foreign Exhange Gain</t>
   </si>
   <si>
     <t>Other Income</t>
   </si>
   <si>
     <t>Pretax Income</t>
-  </si>
-  <si>
-    <t>Share of result of equity investees</t>
   </si>
   <si>
     <t>Tax Expense</t>
@@ -170,18 +155,57 @@
   <si>
     <t>Tax Rate</t>
   </si>
+  <si>
+    <t>Income from Subsidies</t>
+  </si>
+  <si>
+    <t>Online Marketing</t>
+  </si>
+  <si>
+    <t>Transaction Services</t>
+  </si>
+  <si>
+    <t>Interest Income</t>
+  </si>
+  <si>
+    <t>FX Gain</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>USD/RMB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -238,21 +262,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -589,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71972D74-B4A2-49AC-B257-F2C7D228A81C}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
@@ -598,8 +627,8 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="9.140625" style="2"/>
+    <col min="8" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -616,14 +645,14 @@
         <v>9</v>
       </c>
       <c r="I2" s="2">
-        <v>111.91</v>
+        <v>130.96</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="10">
         <v>199.83928571428569</v>
       </c>
       <c r="J3" s="4" t="s">
@@ -637,7 +666,7 @@
       <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="10">
         <v>5543.6329999999998</v>
       </c>
     </row>
@@ -648,7 +677,7 @@
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="10">
         <f>+I3*I4</f>
         <v>1107835.6589821428</v>
       </c>
@@ -657,7 +686,7 @@
       <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="10">
         <f>59794.469+157415.365</f>
         <v>217209.83399999997</v>
       </c>
@@ -669,7 +698,7 @@
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="10">
         <f>5231.523+648.57</f>
         <v>5880.0929999999998</v>
       </c>
@@ -681,9 +710,17 @@
       <c r="H8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="10">
         <f>+I5-I6+I7</f>
         <v>896505.91798214277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H10" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7.13</v>
       </c>
     </row>
   </sheetData>
@@ -696,28 +733,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE05EBF-5B1F-48F6-ACCD-B11EDB6FEB8A}">
-  <dimension ref="A1:AS208"/>
+  <dimension ref="A1:AW208"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
@@ -742,918 +779,998 @@
       <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+      <c r="K2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>39687.678</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10">
+        <v>49351.021999999997</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <v>29152.692999999999</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10">
+        <v>50003.379000000001</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+      <c r="AJ4" s="10"/>
+      <c r="AK4" s="10"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="10"/>
+      <c r="AN4" s="10"/>
+      <c r="AO4" s="10"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3">
-        <v>39687.678</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3">
-        <v>49351.021999999997</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11">
+        <v>68840.370999999999</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11">
+        <v>99354.400999999998</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3">
-        <v>29152.692999999999</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>50003.379000000001</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>26830.233</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <v>39709.214</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+      <c r="AL6" s="10"/>
+      <c r="AM6" s="10"/>
+      <c r="AN6" s="10"/>
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" s="10"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AW6" s="10"/>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
-        <v>68840.370999999999</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6">
-        <v>99354.400999999998</v>
-      </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3">
-        <v>26830.233</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>39709.214</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
         <f>+E5-E6</f>
         <v>42010.137999999999</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
         <f>+I5-I6</f>
         <v>59645.186999999998</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
-      <c r="Z7" s="3"/>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-      <c r="AG7" s="3"/>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AW7" s="10"/>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <v>21748.449000000001</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
+        <v>30483.8</v>
+      </c>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AW8" s="10"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <v>758.34500000000003</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10">
+        <v>1805.576</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AW9" s="10"/>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3">
-        <v>21748.449000000001</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>30483.8</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-      <c r="AG8" s="3"/>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <v>2847.3229999999999</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10">
+        <v>3063.3530000000001</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>758.34500000000003</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3">
-        <v>1805.576</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-      <c r="AG9" s="3"/>
-      <c r="AH9" s="3"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>2847.3229999999999</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
-        <v>3063.3530000000001</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
-      <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-      <c r="AG10" s="3"/>
-      <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <f>+E7-SUM(E8:E10)</f>
         <v>16656.020999999997</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10">
         <f>+I7-SUM(I8:I10)</f>
         <v>24292.457999999999</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="10"/>
+      <c r="AM11" s="10"/>
+      <c r="AN11" s="10"/>
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10"/>
+      <c r="AQ11" s="10"/>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10"/>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
+        <v>2127.3560000000002</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10">
+        <v>5416.08</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="10"/>
+      <c r="AM12" s="10"/>
+      <c r="AN12" s="10"/>
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10"/>
+      <c r="AQ12" s="10"/>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <v>12.208</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="10"/>
+      <c r="AM13" s="10"/>
+      <c r="AN13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10"/>
+      <c r="AQ13" s="10"/>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <v>94.86</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
+        <v>-547.34299999999996</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10"/>
+      <c r="AQ14" s="10"/>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="10"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <v>290.38400000000001</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>18.606000000000002</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
-        <v>2127.3560000000002</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
-        <v>5416.08</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>12.208</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-      <c r="AG13" s="3"/>
-      <c r="AH13" s="3"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
-        <v>94.86</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
-        <v>-547.34299999999996</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>290.38400000000001</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
-        <v>18.606000000000002</v>
-      </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="3"/>
-      <c r="AG15" s="3"/>
-      <c r="AH15" s="3"/>
-      <c r="AI15" s="3"/>
-      <c r="AJ15" s="3"/>
-      <c r="AK15" s="3"/>
-      <c r="AL15" s="3"/>
-      <c r="AM15" s="3"/>
-      <c r="AN15" s="3"/>
-      <c r="AO15" s="3"/>
-      <c r="AP15" s="3"/>
-      <c r="AQ15" s="3"/>
-      <c r="AR15" s="3"/>
-      <c r="AS15" s="3"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
         <f>+E11+E12-E13+E14+E15</f>
         <v>19156.413</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
         <f>+I11+I12-I13+I14+I15</f>
         <v>29179.800999999999</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
-      <c r="AG16" s="3"/>
-      <c r="AH16" s="3"/>
-      <c r="AI16" s="3"/>
-      <c r="AJ16" s="3"/>
-      <c r="AK16" s="3"/>
-      <c r="AL16" s="3"/>
-      <c r="AM16" s="3"/>
-      <c r="AN16" s="3"/>
-      <c r="AO16" s="3"/>
-      <c r="AP16" s="3"/>
-      <c r="AQ16" s="3"/>
-      <c r="AR16" s="3"/>
-      <c r="AS16" s="3"/>
-    </row>
-    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3">
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="10"/>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10"/>
+    </row>
+    <row r="17" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
         <v>105.81100000000001</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10">
         <v>-2.5129999999999999</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-    </row>
-    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="10"/>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="10"/>
+    </row>
+    <row r="18" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
         <v>3513.48</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10">
         <v>4201.62</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-    </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="10"/>
+      <c r="AR18" s="10"/>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10"/>
+    </row>
+    <row r="19" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3">
+        <v>31</v>
+      </c>
+      <c r="C19" s="10">
         <f t="shared" ref="C19:D19" si="0">+C16-SUM(C17:C18)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="10">
         <f>+E16-SUM(E17:E18)</f>
         <v>15537.121999999999</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="10">
         <f t="shared" ref="F19:J19" si="1">+F16-SUM(F17:F18)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="10">
         <f t="shared" si="1"/>
         <v>24980.694</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="10"/>
+      <c r="AR19" s="10"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+    </row>
+    <row r="20" spans="2:49" x14ac:dyDescent="0.2">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -1698,39 +1815,39 @@
       <c r="AR20" s="3"/>
       <c r="AS20" s="3"/>
     </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="7" t="e">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6" t="e">
         <f t="shared" ref="C21:H21" si="2">+C19/C22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="7" t="e">
+      <c r="D21" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <f t="shared" si="2"/>
         <v>2.8443025243558764</v>
       </c>
-      <c r="F21" s="7" t="e">
+      <c r="F21" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="7" t="e">
+      <c r="G21" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="7" t="e">
+      <c r="H21" s="6" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f>+I19/I22</f>
         <v>4.5730895982127002</v>
       </c>
-      <c r="J21" s="7" t="e">
+      <c r="J21" s="6" t="e">
         <f t="shared" ref="J21" si="3">+J19/J22</f>
         <v>#DIV/0!</v>
       </c>
@@ -1770,7 +1887,7 @@
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1939,7 @@
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
     </row>
-    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:49" x14ac:dyDescent="0.2">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1867,9 +1984,9 @@
       <c r="AR23" s="3"/>
       <c r="AS23" s="3"/>
     </row>
-    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1877,7 +1994,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="8">
+      <c r="I24" s="7">
         <f>+I3/E3-1</f>
         <v>0.24348474103221651</v>
       </c>
@@ -1918,9 +2035,9 @@
       <c r="AR24" s="3"/>
       <c r="AS24" s="3"/>
     </row>
-    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1928,7 +2045,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="8">
+      <c r="I25" s="7">
         <f t="shared" ref="I25:I26" si="4">+I4/E4-1</f>
         <v>0.71522332430832392</v>
       </c>
@@ -1969,9 +2086,9 @@
       <c r="AR25" s="3"/>
       <c r="AS25" s="3"/>
     </row>
-    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1979,7 +2096,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="8">
+      <c r="I26" s="7">
         <f t="shared" si="4"/>
         <v>0.44325777965374424</v>
       </c>
@@ -2020,39 +2137,39 @@
       <c r="AR26" s="3"/>
       <c r="AS26" s="3"/>
     </row>
-    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="8" t="e">
+        <v>36</v>
+      </c>
+      <c r="C27" s="7" t="e">
         <f t="shared" ref="C27:H27" si="5">+C7/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="8" t="e">
+      <c r="D27" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <f t="shared" si="5"/>
         <v>0.61025438111017738</v>
       </c>
-      <c r="F27" s="8" t="e">
+      <c r="F27" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="8" t="e">
+      <c r="G27" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="8" t="e">
+      <c r="H27" s="7" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="7">
         <f>+I7/I5</f>
         <v>0.60032757884575239</v>
       </c>
-      <c r="J27" s="8" t="e">
+      <c r="J27" s="7" t="e">
         <f t="shared" ref="J27" si="6">+J7/J5</f>
         <v>#DIV/0!</v>
       </c>
@@ -2092,39 +2209,39 @@
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
     </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="8" t="e">
+        <v>37</v>
+      </c>
+      <c r="C28" s="7" t="e">
         <f t="shared" ref="C28:H28" si="7">+C11/C5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="8" t="e">
+      <c r="D28" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <f t="shared" si="7"/>
         <v>0.24195135438767459</v>
       </c>
-      <c r="F28" s="8" t="e">
+      <c r="F28" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="8" t="e">
+      <c r="G28" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="8" t="e">
+      <c r="H28" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="7">
         <f>+I11/I5</f>
         <v>0.24450308950078617</v>
       </c>
-      <c r="J28" s="8" t="e">
+      <c r="J28" s="7" t="e">
         <f t="shared" ref="J28" si="8">+J11/J5</f>
         <v>#DIV/0!</v>
       </c>
@@ -2164,39 +2281,39 @@
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
     </row>
-    <row r="29" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="8" t="e">
+        <v>38</v>
+      </c>
+      <c r="C29" s="7" t="e">
         <f t="shared" ref="C29:H29" si="9">+C18/C16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="8" t="e">
+      <c r="D29" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <f t="shared" si="9"/>
         <v>0.18341011962938991</v>
       </c>
-      <c r="F29" s="8" t="e">
+      <c r="F29" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="8" t="e">
+      <c r="G29" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="8" t="e">
+      <c r="H29" s="7" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="7">
         <f>+I18/I16</f>
         <v>0.14399070096468444</v>
       </c>
-      <c r="J29" s="8" t="e">
+      <c r="J29" s="7" t="e">
         <f t="shared" ref="J29" si="10">+J18/J16</f>
         <v>#DIV/0!</v>
       </c>
@@ -2236,7 +2353,7 @@
       <c r="AR29" s="3"/>
       <c r="AS29" s="3"/>
     </row>
-    <row r="30" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:49" x14ac:dyDescent="0.2">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2281,7 +2398,7 @@
       <c r="AR30" s="3"/>
       <c r="AS30" s="3"/>
     </row>
-    <row r="31" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:49" x14ac:dyDescent="0.2">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2326,7 +2443,7 @@
       <c r="AR31" s="3"/>
       <c r="AS31" s="3"/>
     </row>
-    <row r="32" spans="2:45" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:49" x14ac:dyDescent="0.2">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>

--- a/PDD.xlsx
+++ b/PDD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F4CAAC-F3FE-4817-9680-335B7CDA2FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F6AA60-2BB4-4108-BB23-153C3EF5543C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" xr2:uid="{993E6331-6CE6-4343-AF0F-F0F968464DB9}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{993E6331-6CE6-4343-AF0F-F0F968464DB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -193,13 +193,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -262,26 +268,31 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -620,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71972D74-B4A2-49AC-B257-F2C7D228A81C}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -655,8 +666,8 @@
       <c r="I3" s="10">
         <v>199.83928571428569</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>11</v>
+      <c r="J3" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -666,8 +677,8 @@
       <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="10">
-        <v>5543.6329999999998</v>
+      <c r="I4" s="3">
+        <v>5587.7969999999996</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -679,7 +690,7 @@
       </c>
       <c r="I5" s="10">
         <f>+I3*I4</f>
-        <v>1107835.6589821428</v>
+        <v>1116661.3611964283</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -687,11 +698,11 @@
         <v>4</v>
       </c>
       <c r="I6" s="10">
-        <f>59794.469+157415.365</f>
-        <v>217209.83399999997</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>11</v>
+        <f>63222.442+323908.642</f>
+        <v>387131.08399999997</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -699,11 +710,10 @@
         <v>5</v>
       </c>
       <c r="I7" s="10">
-        <f>5231.523+648.57</f>
-        <v>5880.0929999999998</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>11</v>
+        <v>5287.585</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -712,7 +722,7 @@
       </c>
       <c r="I8" s="10">
         <f>+I5-I6+I7</f>
-        <v>896505.91798214277</v>
+        <v>734817.86219642824</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -736,10 +746,10 @@
   <dimension ref="A1:AW208"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -802,14 +812,22 @@
         <v>39687.678</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="10">
+        <v>42456.243000000002</v>
+      </c>
+      <c r="H3" s="10">
+        <v>49115.866000000002</v>
+      </c>
       <c r="I3" s="10">
         <v>49351.021999999997</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
+      <c r="K3" s="10">
+        <v>48722.171000000002</v>
+      </c>
+      <c r="L3" s="10">
+        <v>55703.222000000002</v>
+      </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -858,14 +876,22 @@
         <v>29152.692999999999</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="10">
+        <v>44355.815999999999</v>
+      </c>
+      <c r="H4" s="10">
+        <v>47943.654999999999</v>
+      </c>
       <c r="I4" s="10">
         <v>50003.379000000001</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="K4" s="10">
+        <v>46950.004000000001</v>
+      </c>
+      <c r="L4" s="10">
+        <v>48281.61</v>
+      </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -914,14 +940,22 @@
         <v>68840.370999999999</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="11">
+        <v>86812.058999999994</v>
+      </c>
+      <c r="H5" s="11">
+        <v>97059.531000000003</v>
+      </c>
       <c r="I5" s="11">
         <v>99354.400999999998</v>
       </c>
       <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
+      <c r="K5" s="11">
+        <v>95672.175000000003</v>
+      </c>
+      <c r="L5" s="11">
+        <v>103984.83199999999</v>
+      </c>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -970,14 +1004,22 @@
         <v>26830.233</v>
       </c>
       <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10">
+        <v>32694.686000000002</v>
+      </c>
+      <c r="H6" s="10">
+        <v>33698.097999999998</v>
+      </c>
       <c r="I6" s="10">
         <v>39709.214</v>
       </c>
       <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="K6" s="10">
+        <v>40947.1</v>
+      </c>
+      <c r="L6" s="10">
+        <v>45858.932999999997</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1027,15 +1069,30 @@
         <v>42010.137999999999</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="10">
+        <f>+G5-G6</f>
+        <v>54117.372999999992</v>
+      </c>
+      <c r="H7" s="10">
+        <f>+H5-H6</f>
+        <v>63361.433000000005</v>
+      </c>
       <c r="I7" s="10">
         <f>+I5-I6</f>
         <v>59645.186999999998</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:L7" si="0">+J5-J6</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="0"/>
+        <v>54725.075000000004</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
+        <v>58125.898999999998</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -1084,14 +1141,22 @@
         <v>21748.449000000001</v>
       </c>
       <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="10">
+        <v>23410.654999999999</v>
+      </c>
+      <c r="H8" s="10">
+        <v>26049.136999999999</v>
+      </c>
       <c r="I8" s="10">
         <v>30483.8</v>
       </c>
       <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="K8" s="10">
+        <v>33402.741000000002</v>
+      </c>
+      <c r="L8" s="10">
+        <v>27209.896000000001</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1140,14 +1205,22 @@
         <v>758.34500000000003</v>
       </c>
       <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="10">
+        <v>1823.4449999999999</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1838.55</v>
+      </c>
       <c r="I9" s="10">
         <v>1805.576</v>
       </c>
       <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
+      <c r="K9" s="10">
+        <v>1658.943</v>
+      </c>
+      <c r="L9" s="10">
+        <v>1531.825</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -1196,14 +1269,22 @@
         <v>2847.3229999999999</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="10">
+        <v>2909.62</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2909.21</v>
+      </c>
       <c r="I10" s="10">
         <v>3063.3530000000001</v>
       </c>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="10">
+        <v>3577.828</v>
+      </c>
+      <c r="L10" s="10">
+        <v>3591.279</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1252,16 +1333,34 @@
         <f>+E7-SUM(E8:E10)</f>
         <v>16656.020999999997</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="F11" s="10">
+        <f t="shared" ref="F11:H11" si="1">+F7-SUM(F8:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>25973.652999999995</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
+        <v>32564.536000000007</v>
+      </c>
       <c r="I11" s="10">
         <f>+I7-SUM(I8:I10)</f>
         <v>24292.457999999999</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+      <c r="J11" s="10">
+        <f t="shared" ref="J11:L11" si="2">+J7-SUM(J8:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="2"/>
+        <v>16085.563000000002</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="2"/>
+        <v>25792.898999999998</v>
+      </c>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -1310,14 +1409,22 @@
         <v>2127.3560000000002</v>
       </c>
       <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="10">
+        <v>5048.5889999999999</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4855.5919999999996</v>
+      </c>
       <c r="I12" s="10">
         <v>5416.08</v>
       </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="10">
+        <v>223.125</v>
+      </c>
+      <c r="L12" s="10">
+        <v>10422.628000000001</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -1366,14 +1473,22 @@
         <v>12.208</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
       <c r="I13" s="10">
         <v>0</v>
       </c>
       <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="K13" s="10">
+        <v>0</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -1422,14 +1537,22 @@
         <v>94.86</v>
       </c>
       <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="10">
+        <v>214.518</v>
+      </c>
+      <c r="H14" s="10">
+        <v>60.164999999999999</v>
+      </c>
       <c r="I14" s="10">
         <v>-547.34299999999996</v>
       </c>
       <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="K14" s="10">
+        <v>-242.14</v>
+      </c>
+      <c r="L14" s="10">
+        <v>-799.35</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -1478,14 +1601,22 @@
         <v>290.38400000000001</v>
       </c>
       <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="10">
+        <v>1881.248</v>
+      </c>
+      <c r="H15" s="10">
+        <v>493.25799999999998</v>
+      </c>
       <c r="I15" s="10">
         <v>18.606000000000002</v>
       </c>
       <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="10">
+        <v>3261.2919999999999</v>
+      </c>
+      <c r="L15" s="10">
+        <v>119.10599999999999</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -1535,15 +1666,30 @@
         <v>19156.413</v>
       </c>
       <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="10">
+        <f>+G11+G12-G13+G14+G15</f>
+        <v>33118.007999999994</v>
+      </c>
+      <c r="H16" s="10">
+        <f>+H11+H12-H13+H14+H15</f>
+        <v>37973.551000000007</v>
+      </c>
       <c r="I16" s="10">
         <f>+I11+I12-I13+I14+I15</f>
         <v>29179.800999999999</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
+      <c r="J16" s="10">
+        <f t="shared" ref="J16:L16" si="3">+J11+J12-J13+J14+J15</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="3"/>
+        <v>19327.840000000004</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="3"/>
+        <v>35535.283000000003</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -1589,17 +1735,25 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10">
-        <v>105.81100000000001</v>
+        <v>-105.81100000000001</v>
       </c>
       <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="10">
+        <v>-52.43</v>
+      </c>
+      <c r="H17" s="10">
+        <v>49.582999999999998</v>
+      </c>
       <c r="I17" s="10">
-        <v>-2.5129999999999999</v>
+        <v>2.5129999999999999</v>
       </c>
       <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
+      <c r="K17" s="10">
+        <v>-105.18</v>
+      </c>
+      <c r="L17" s="10">
+        <v>37.097000000000001</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -1648,14 +1802,22 @@
         <v>3513.48</v>
       </c>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="10">
+        <v>5067.7520000000004</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5914.6130000000003</v>
+      </c>
       <c r="I18" s="10">
         <v>4201.62</v>
       </c>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
+      <c r="K18" s="10">
+        <v>4480.8310000000001</v>
+      </c>
+      <c r="L18" s="10">
+        <v>4818.9229999999998</v>
+      </c>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -1699,40 +1861,49 @@
         <v>31</v>
       </c>
       <c r="C19" s="10">
-        <f t="shared" ref="C19:D19" si="0">+C16-SUM(C17:C18)</f>
+        <f>+C16+C17-C18</f>
         <v>0</v>
       </c>
       <c r="D19" s="10">
-        <f t="shared" si="0"/>
+        <f>+D16+D17-D18</f>
         <v>0</v>
       </c>
       <c r="E19" s="10">
-        <f>+E16-SUM(E17:E18)</f>
+        <f>+E16+E17-E18</f>
         <v>15537.121999999999</v>
       </c>
       <c r="F19" s="10">
-        <f t="shared" ref="F19:J19" si="1">+F16-SUM(F17:F18)</f>
+        <f>+F16+F17-F18</f>
         <v>0</v>
       </c>
       <c r="G19" s="10">
-        <f t="shared" si="1"/>
+        <f>+G16+G17-G18</f>
+        <v>27997.825999999994</v>
+      </c>
+      <c r="H19" s="10">
+        <f>+H16+H17-H18</f>
+        <v>32108.521000000004</v>
+      </c>
+      <c r="I19" s="10">
+        <f>+I16+I17-I18</f>
+        <v>24980.694</v>
+      </c>
+      <c r="J19" s="10">
+        <f>+J16+J17-J18</f>
         <v>0</v>
       </c>
-      <c r="H19" s="10">
-        <f t="shared" si="1"/>
+      <c r="K19" s="10">
+        <f>+K16+K17-K18</f>
+        <v>14741.829000000003</v>
+      </c>
+      <c r="L19" s="10">
+        <f>+L16+L17-L18</f>
+        <v>30753.457000000006</v>
+      </c>
+      <c r="M19" s="10">
+        <f>+M16+M17-M18</f>
         <v>0</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="1"/>
-        <v>24980.694</v>
-      </c>
-      <c r="J19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -1820,40 +1991,49 @@
         <v>32</v>
       </c>
       <c r="C21" s="6" t="e">
-        <f t="shared" ref="C21:H21" si="2">+C19/C22</f>
+        <f t="shared" ref="C21:H21" si="4">+C19/C22</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D21" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8443025243558764</v>
       </c>
       <c r="F21" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="6" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="G21" s="6">
+        <f t="shared" si="4"/>
+        <v>5.0815684099372698</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="4"/>
+        <v>5.8022596062449727</v>
       </c>
       <c r="I21" s="6">
         <f>+I19/I22</f>
         <v>4.5730895982127002</v>
       </c>
       <c r="J21" s="6" t="e">
-        <f t="shared" ref="J21" si="3">+J19/J22</f>
+        <f t="shared" ref="J21:M21" si="5">+J19/J22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="K21" s="6">
+        <f t="shared" si="5"/>
+        <v>2.6476922764688342</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="5"/>
+        <v>5.5036818624584978</v>
+      </c>
+      <c r="M21" s="6" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -1897,14 +2077,22 @@
         <v>5462.5420000000004</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3">
+        <v>5509.6819999999998</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5533.7960000000003</v>
+      </c>
       <c r="I22" s="3">
         <v>5462.5420000000004</v>
       </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="K22" s="3">
+        <v>5567.8029999999999</v>
+      </c>
+      <c r="L22" s="3">
+        <v>5587.7969999999996</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -1998,10 +2186,22 @@
         <f>+I3/E3-1</f>
         <v>0.24348474103221651</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="J24" s="7" t="e">
+        <f t="shared" ref="J24:M26" si="6">+J3/F3-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="6"/>
+        <v>0.1475855506103072</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="6"/>
+        <v>0.13411869801908827</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2046,13 +2246,25 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="7">
-        <f t="shared" ref="I25:I26" si="4">+I4/E4-1</f>
+        <f t="shared" ref="I25:I26" si="7">+I4/E4-1</f>
         <v>0.71522332430832392</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="J25" s="7" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="6"/>
+        <v>5.8485858990848127E-2</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="6"/>
+        <v>7.0490036689943025E-3</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
@@ -2087,23 +2299,35 @@
       <c r="AS25" s="3"/>
     </row>
     <row r="26" spans="2:49" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="7">
-        <f t="shared" si="4"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13">
+        <f t="shared" si="7"/>
         <v>0.44325777965374424</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="J26" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="6"/>
+        <v>0.10206088995078444</v>
+      </c>
+      <c r="L26" s="13">
+        <f t="shared" si="6"/>
+        <v>7.1351065976199557E-2</v>
+      </c>
+      <c r="M26" s="13">
+        <f t="shared" si="6"/>
+        <v>-1</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -2142,40 +2366,49 @@
         <v>36</v>
       </c>
       <c r="C27" s="7" t="e">
-        <f t="shared" ref="C27:H27" si="5">+C7/C5</f>
+        <f t="shared" ref="C27:H27" si="8">+C7/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D27" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.61025438111017738</v>
       </c>
       <c r="F27" s="7" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+      <c r="G27" s="7">
+        <f t="shared" si="8"/>
+        <v>0.62338543312283368</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="8"/>
+        <v>0.65281000585094529</v>
       </c>
       <c r="I27" s="7">
         <f>+I7/I5</f>
         <v>0.60032757884575239</v>
       </c>
       <c r="J27" s="7" t="e">
-        <f t="shared" ref="J27" si="6">+J7/J5</f>
+        <f t="shared" ref="J27:M27" si="9">+J7/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="K27" s="7">
+        <f t="shared" si="9"/>
+        <v>0.57200617629943085</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="9"/>
+        <v>0.55898440072490574</v>
+      </c>
+      <c r="M27" s="7" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -2214,40 +2447,49 @@
         <v>37</v>
       </c>
       <c r="C28" s="7" t="e">
-        <f t="shared" ref="C28:H28" si="7">+C11/C5</f>
+        <f t="shared" ref="C28:H28" si="10">+C11/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D28" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E28" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.24195135438767459</v>
       </c>
       <c r="F28" s="7" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="7" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+      <c r="G28" s="7">
+        <f t="shared" si="10"/>
+        <v>0.29919406703623969</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" si="10"/>
+        <v>0.33551095564226463</v>
       </c>
       <c r="I28" s="7">
         <f>+I11/I5</f>
         <v>0.24450308950078617</v>
       </c>
       <c r="J28" s="7" t="e">
-        <f t="shared" ref="J28" si="8">+J11/J5</f>
+        <f t="shared" ref="J28:M28" si="11">+J11/J5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="K28" s="7">
+        <f t="shared" si="11"/>
+        <v>0.16813209274274366</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="11"/>
+        <v>0.2480448206138372</v>
+      </c>
+      <c r="M28" s="7" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
@@ -2286,40 +2528,49 @@
         <v>38</v>
       </c>
       <c r="C29" s="7" t="e">
-        <f t="shared" ref="C29:H29" si="9">+C18/C16</f>
+        <f t="shared" ref="C29:H29" si="12">+C18/C16</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D29" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.18341011962938991</v>
       </c>
       <c r="F29" s="7" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="7" t="e">
-        <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+      <c r="G29" s="7">
+        <f t="shared" si="12"/>
+        <v>0.15302103918810581</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" si="12"/>
+        <v>0.15575612088529722</v>
       </c>
       <c r="I29" s="7">
         <f>+I18/I16</f>
         <v>0.14399070096468444</v>
       </c>
       <c r="J29" s="7" t="e">
-        <f t="shared" ref="J29" si="10">+J18/J16</f>
+        <f t="shared" ref="J29:M29" si="13">+J18/J16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+      <c r="K29" s="7">
+        <f t="shared" si="13"/>
+        <v>0.23183299323669895</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="13"/>
+        <v>0.13560952926701048</v>
+      </c>
+      <c r="M29" s="7" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
